--- a/rsc/today/201912_revoicequizlist.xlsx
+++ b/rsc/today/201912_revoicequizlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkdung/Library/Caches/com.binarynights.ForkLift2/#2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D2D7B2-3FAA-4378-ABF9-FF2D5816BDB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401F1A1-4599-8449-9144-5230061B9E8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
+    <workbookView xWindow="3460" yWindow="10880" windowWidth="33600" windowHeight="19160" xr2:uid="{00E6268E-7A57-4C51-BCA5-5C9225E6E9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="224">
   <si>
     <t>CHOICE2</t>
   </si>
@@ -189,9 +189,6 @@
     <t>삼성 라이온스</t>
   </si>
   <si>
-    <t>SK 하이닉스</t>
-  </si>
-  <si>
     <t xml:space="preserve">라면 좋아하시나요? 어떤 라면을 자주드시나요? 오늘의 보너스 퀴즈는 라면에 관한 퀴즈에요. </t>
   </si>
   <si>
@@ -622,6 +619,246 @@
   </si>
   <si>
     <t>디 마케팅은, 고의로 고객의 수요를 줄이는 마케팅 기법으로, 제품에 대한 이미지와 브랜드 가치를 향상시키고 특정 고객들의 충성도를 강화시키는 효과를 노립니다. '흡연은 폐암을 증가시킨다'와 같은 경고문구 등이 대표적인 예시라고 할 수 있는데요, 소비자 보호나, 사회적인 책임을 강조합으로써, 기업의 신뢰도를 강조하는 디마케팅이라고 하네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중, 가장 이빨이 많은 동물은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 이는 잘 닦고 계신가요? 동물들은 사람보다 훨씬 많은 이빨을 가지고있는데요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달팽이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백상아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달팽이의 이빨을 치설이라고 하는데요. 강판처럼 모여 있어 딱딱한 것도 거뜬하게 씹을 수 있다고해요. 무려 이만오천개의 치설을 가지고 있다고하네요! 달팽이도 이빨을 잘 닦나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 크리스마스 이브입니다. 오늘 밤에 산타 할아버지가 루돌프를 타고 선물을 주러 내려오신텐데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고라니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 알고 있는 루돌프는 순록이라고해요. 순록은 사슴과 달리 암컷, 수컷 모두 뿔이 있다고 해요. 앞으로는 루돌프 사슴코가 아니라, 루돌프 순록코라고 해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산타 할아버지가 타고 다니는 루돌프는 어떤 종류의 동물일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최초로 취항한 초음속 여객기의 이름은 무엇일까요? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>록히드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투폴레프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보잉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩코드는 영국의 항공사 브리티시 에어웨이즈와 프랑스의 항공사 에어프랑스가 합작으로 만든 세계 최초의 초음속 여객기입니다. 하지만 막대한 투자비용과 낮은 연비, 그리고 고장이 잦은 문제로 2003년 마지막 비행을 하며, 역사속으로 사라졌다네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 크리스마스입니다. 크리스마스인만큼 포인트도 크게 드릴게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스는 어떤 사람의 탄생을 기리는 세계적인 기념일 인데요? 크리스마스는  누구의 생일일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">산타 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예수 그리스도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성모 마리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스는 예수 그리소도의 탄생을 기리는 저통적인 기념일입니다. 최초의 크리스마스를 지낸 기록은 336년 로마에서 크리스마스를 기념했다고 하네요. 다들 메리 크리스마스!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제와 오늘 오전동안, 오늘의 퀴즈에 오류가 있었어요. 죄송해요. 정신차릴게요! 오늘은 정신에 관련된 퀴즈에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 비행기에 관련된 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속적으로 큰소리에 노출되면 정신적인 스트레스를 주게되는데요. 그럼에도 정신건강에 도움이 되는 소리가 있어요. 이 것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 노이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트 노이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초음파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고주파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화이트노이즈는 인간이 들을 수 있는 모든 주파수 영역대에서 모든 소리가 동일한 음량으로 나는 소음이에요. 그래서 특별하게 뇌에서 자극으로 받아들여지지 않아 오히려 정신건강에 도움이 된다고하네요. 오늘 오늘의 퀴즈 사무실에는 백색소음을 틀어놓을게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infinite_park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박명수는 무모한도전 초기인 4회 목욕탕 배수구와의 대결편부터 합류한 멤버였으나 15회까지 출연 후 짤린 경험이 있었죠. 당시 담당 피디였던 권석이 우리가 쌀이라면 박명수는 보리다라는 평가를 내리며 하차시켰다고해요. 이후 무한도전의 피디가 김태호로 바뀐 이후에 다시 들어와서 고정이 되었죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 엠비씨 간판 예능이었던, 무한도전 농사특집편에서 나온 퀴즈에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한도전 농사특집편에서, 멤버들끼리 퀴즈대결을 펼치면서 박명수의 이 소리를 맞추는 대결을 했는데요. 지금부터 박명수의 소리를 들려드릴거에요. 마지막 부분을 잘 듣고 퀴즈를 풀어보세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 들은 박명수가 울부짖는 소리는, 박명수가 어떤 상황에서 냈던 소리일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박명수의 기습공격 특집에서, 실패했을 때 좌절하는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 사나이편에서, 입소 신고하다 패닉온 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한도전 초창기에 짤렸을 때, 열받아서 외치는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100회 특집때, 꼬마한테 꿀밤맞고 아파하는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 중, 2019년에 천만 관객을 돌파한 영화가 아닌 것은 무엇일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년의 마지막 월요일이네요. 오늘도 힘내세요! 올해에 극장을 찾은 관객수가 역대 최고라고해요. 오늘은 영화 관객수에 관련된 퀴즈를 준비했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극한직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알라딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울왕국 투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조커는 520만 관객을 동원한 영화입니다. 올해의 천만관객 돌파 영화에는 극한직업, 어벤져스 엔드게임, 겨울왕국 투, 알라딘, 기생충이 있습니다. 역대 최대 수라고 하네요. 내년에도 좋은 영화들 기대할게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년 마지막 날이에요. 모두들 1년 동안 수고하셨어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일이면 2020년인데요. 2020년은 어떤 띠 동물의 해일까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년은 경자년 쥐띠의 해입니다. 경자년의 의미는 하얀 쥐의 해라고 하는데요. 쥐는 풍요와 희망, 그리고 기회의 상징이라고 해요. 내년에도 더 재미있는 퀴즈들로 찾아갈게요. 새해 복 많이받으세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +866,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,9 +934,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1026,34 +1260,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B21E13-519B-49F6-A298-E0290A1CE3D3}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="142" style="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="151.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="151.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="26.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="36.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="36.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="35" style="1" customWidth="1"/>
-    <col min="17" max="17" width="29.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1094,12 +1328,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
         <v>43800</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1">
         <v>30</v>
@@ -1108,36 +1342,36 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>43801</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1146,31 +1380,31 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>43802</v>
       </c>
@@ -1208,12 +1442,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>43803</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
@@ -1222,36 +1456,36 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>43804</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
@@ -1260,36 +1494,36 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>43805</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1">
         <v>30</v>
@@ -1298,36 +1532,36 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>43806</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -1339,13 +1573,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>9</v>
@@ -1357,13 +1591,13 @@
         <v>2</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="17.25" customHeight="1">
       <c r="A9" s="2">
         <v>43807</v>
       </c>
@@ -1392,24 +1626,24 @@
         <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>43808</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1">
         <v>50</v>
@@ -1439,18 +1673,18 @@
         <v>3</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>43809</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1">
         <v>40</v>
@@ -1486,12 +1720,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="17.25" customHeight="1">
       <c r="A12" s="2">
         <v>43810</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1">
         <v>40</v>
@@ -1500,36 +1734,36 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>43811</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1">
         <v>40</v>
@@ -1538,36 +1772,36 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="K13" s="1">
         <v>4</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>43812</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1">
         <v>50</v>
@@ -1575,37 +1809,37 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>140</v>
+      <c r="F14" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="K14" s="1">
         <v>3</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>138</v>
+      <c r="L14" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>43813</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
@@ -1614,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>43814</v>
       </c>
@@ -1649,145 +1883,148 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="K16" s="1">
         <v>2</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>142</v>
+      <c r="L16" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>43815</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="1">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>43816</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="1">
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="K18" s="1">
         <v>2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>43817</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>152</v>
+      <c r="B19" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C19" s="1">
         <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="K19" s="1">
         <v>3</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" customHeight="1">
       <c r="A20" s="2">
         <v>43818</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C20" s="1">
         <v>30</v>
       </c>
@@ -1795,111 +2032,476 @@
         <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2">
         <v>43819</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>43820</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="2">
         <v>43821</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2">
         <v>43822</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="2">
         <v>43823</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" customHeight="1">
       <c r="A26" s="2">
         <v>43824</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="1">
+        <v>100</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2">
         <v>43825</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="1">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2">
         <v>43826</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="1">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="2">
         <v>43827</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="1">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="2">
         <v>43828</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="1">
+        <v>50</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="2">
         <v>43829</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="1">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="2">
         <v>43830</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="1">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2"/>
     </row>
   </sheetData>
